--- a/Spreadsheet Applications/Use Financial and Lookup Functions, Define Names, Validate Data, and Audit Worksheets/Lookup Revenue Report.xlsx
+++ b/Spreadsheet Applications/Use Financial and Lookup Functions, Define Names, Validate Data, and Audit Worksheets/Lookup Revenue Report.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="242" documentId="11_9FE7EEAF9098A48832D3815714DD251A2DA5FD73" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55F5FD2F-F50C-426B-8D01-6595D01D811B}"/>
+  <xr:revisionPtr revIDLastSave="257" documentId="11_9FE7EEAF9098A48832D3815714DD251A2DA5FD73" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F8D39FA-7B54-4334-8173-E026915365A1}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Phone Order" sheetId="2" r:id="rId1"/>
@@ -596,6 +596,7 @@
     <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="4" xfId="7" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -632,7 +633,6 @@
     <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="4" xfId="7" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Comma" xfId="5" builtinId="3"/>
@@ -660,9 +660,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -700,9 +700,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -735,26 +735,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -787,26 +770,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -980,13 +946,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD18"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1001,24 +964,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="23.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
     </row>
     <row r="2" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
@@ -1318,19 +1281,18 @@
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" verticalDpi="200" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;L&amp;F</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A11"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1341,21 +1303,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -1476,19 +1438,18 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="200" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;L&amp;F</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1506,28 +1467,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
@@ -2075,19 +2036,18 @@
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;L&amp;F</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2100,15 +2060,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
@@ -2180,19 +2140,18 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;L&amp;F</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2206,22 +2165,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
     </row>
     <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="21" t="s">
@@ -2313,15 +2272,15 @@
       <c r="A8" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="48">
+      <c r="B8" s="36">
         <f>SUM(B4:B7)</f>
         <v>354668</v>
       </c>
-      <c r="C8" s="48">
+      <c r="C8" s="36">
         <f t="shared" ref="C8:D8" si="1">SUM(C4:C7)</f>
         <v>344872</v>
       </c>
-      <c r="D8" s="48">
+      <c r="D8" s="36">
         <f t="shared" si="1"/>
         <v>318683</v>
       </c>
@@ -2338,19 +2297,18 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="200" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;L&amp;F</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2363,22 +2321,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="23" t="s">
@@ -2471,15 +2429,15 @@
       <c r="A8" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="48">
+      <c r="B8" s="36">
         <f>SUM(B4:B7)</f>
         <v>170045</v>
       </c>
-      <c r="C8" s="48">
+      <c r="C8" s="36">
         <f t="shared" ref="C8:D8" si="1">SUM(C4:C7)</f>
         <v>167682</v>
       </c>
-      <c r="D8" s="48">
+      <c r="D8" s="36">
         <f t="shared" si="1"/>
         <v>164243</v>
       </c>
@@ -2496,19 +2454,18 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" verticalDpi="200" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;L&amp;F</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2522,22 +2479,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
     </row>
     <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="21" t="s">
@@ -2629,15 +2586,15 @@
       <c r="A8" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="48">
+      <c r="B8" s="36">
         <f>SUM(B4:B7)</f>
         <v>311419</v>
       </c>
-      <c r="C8" s="48">
+      <c r="C8" s="36">
         <f t="shared" ref="C8:D8" si="1">SUM(C4:C7)</f>
         <v>350580</v>
       </c>
-      <c r="D8" s="48">
+      <c r="D8" s="36">
         <f t="shared" si="1"/>
         <v>342324</v>
       </c>
@@ -2654,7 +2611,9 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" verticalDpi="200" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;L&amp;F</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -2665,7 +2624,7 @@
   </sheetPr>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -2679,22 +2638,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
     </row>
     <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="21" t="s">
@@ -2786,15 +2745,15 @@
       <c r="A8" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="48">
+      <c r="B8" s="36">
         <f>SUM(B4:B7)</f>
         <v>303489</v>
       </c>
-      <c r="C8" s="48">
+      <c r="C8" s="36">
         <f t="shared" ref="C8:D8" si="1">SUM(C4:C7)</f>
         <v>312516</v>
       </c>
-      <c r="D8" s="48">
+      <c r="D8" s="36">
         <f t="shared" si="1"/>
         <v>311814</v>
       </c>
@@ -2811,6 +2770,8 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" verticalDpi="200" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;L&amp;F</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>